--- a/Results.xlsx
+++ b/Results.xlsx
@@ -368,7 +368,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="8">
   <si>
     <t>Participant</t>
   </si>
@@ -42,6 +42,15 @@
   </si>
   <si>
     <t>Period</t>
+  </si>
+  <si>
+    <t>Has Skips?</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -85,14 +94,66 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -365,159 +426,2521 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="E2" s="5">
+        <v>429.81</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4.5609999999999999</v>
+      </c>
+      <c r="E3" s="5">
+        <v>940.52</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5">
+        <v>6.5010000000000003</v>
+      </c>
+      <c r="E4" s="5">
+        <v>315.42</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5">
+        <v>6.7329999999999997</v>
+      </c>
+      <c r="E5" s="5">
+        <v>153.49</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5">
         <v>15.34</v>
       </c>
-      <c r="E2">
+      <c r="E6" s="5">
         <v>49.67</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
+      <c r="F6" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5">
+        <v>8.3610000000000007</v>
+      </c>
+      <c r="E7" s="5">
+        <v>108.36</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6">
+        <v>4.984</v>
+      </c>
+      <c r="E8" s="6">
+        <v>96.17</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2.387</v>
+      </c>
+      <c r="E9" s="5">
+        <v>48.59</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5">
+        <v>7.5810000000000004</v>
+      </c>
+      <c r="E10" s="5">
+        <v>45.819000000000003</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5">
+        <v>13.13</v>
+      </c>
+      <c r="E11" s="5">
+        <v>41.021000000000001</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5">
+        <v>719.09</v>
+      </c>
+      <c r="E12" s="5">
+        <v>10.17</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3</v>
+      </c>
+      <c r="D13" s="5">
+        <v>5.8879999999999999</v>
+      </c>
+      <c r="E13" s="5">
+        <v>309.82</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5">
+        <v>6.2510000000000003</v>
+      </c>
+      <c r="E14" s="5">
+        <v>341.01</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5">
+        <v>5.6230000000000002</v>
+      </c>
+      <c r="E15" s="5">
+        <v>102.45</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5">
         <v>14.75</v>
       </c>
-      <c r="E3">
+      <c r="E16" s="5">
         <v>124.99</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="F16" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5">
+        <v>9.4369999999999994</v>
+      </c>
+      <c r="E17" s="5">
+        <v>47.146000000000001</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5">
+        <v>5.399</v>
+      </c>
+      <c r="E18" s="5">
+        <v>162.72999999999999</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="C19" s="3">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5">
+        <v>4.3339999999999996</v>
+      </c>
+      <c r="E19" s="5">
+        <v>128.81</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="D20" s="5">
+        <v>10.71</v>
+      </c>
+      <c r="E20" s="5">
+        <v>58.502000000000002</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21" s="5">
+        <v>12.01</v>
+      </c>
+      <c r="E21" s="5">
+        <v>30.501999999999999</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>3</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="5">
+        <v>8.6869999999999994</v>
+      </c>
+      <c r="E22" s="5">
+        <v>60.173000000000002</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3</v>
+      </c>
+      <c r="D23" s="5">
+        <v>6.8449999999999998</v>
+      </c>
+      <c r="E23" s="5">
+        <v>108.35</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3</v>
+      </c>
+      <c r="D24" s="5">
+        <v>8.0739999999999998</v>
+      </c>
+      <c r="E24" s="5">
+        <v>96.685000000000002</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3</v>
+      </c>
+      <c r="D25" s="5">
+        <v>7.8540000000000001</v>
+      </c>
+      <c r="E25" s="5">
+        <v>65.617000000000004</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" s="5">
+        <v>6.5510000000000002</v>
+      </c>
+      <c r="E26" s="5">
+        <v>46.814</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3</v>
+      </c>
+      <c r="D27" s="5">
+        <v>8.0559999999999992</v>
+      </c>
+      <c r="E27" s="5">
+        <v>24.908000000000001</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3">
+        <v>7</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3</v>
+      </c>
+      <c r="D28" s="5">
+        <v>7.49</v>
+      </c>
+      <c r="E28" s="5">
+        <v>92.153000000000006</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>3</v>
+      </c>
+      <c r="B29" s="3">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3">
+        <v>3</v>
+      </c>
+      <c r="D29" s="5">
+        <v>6.4379999999999997</v>
+      </c>
+      <c r="E29" s="5">
+        <v>86.91</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>3</v>
+      </c>
+      <c r="B30" s="3">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3">
+        <v>3</v>
+      </c>
+      <c r="D30" s="5">
+        <v>5.45</v>
+      </c>
+      <c r="E30" s="5">
+        <v>91.222999999999999</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>3</v>
+      </c>
+      <c r="B31" s="3">
+        <v>10</v>
+      </c>
+      <c r="C31" s="3">
+        <v>3</v>
+      </c>
+      <c r="D31" s="5">
+        <v>26.87</v>
+      </c>
+      <c r="E31" s="5">
+        <v>18.521000000000001</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>4</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>4</v>
+      </c>
+      <c r="B37" s="3">
+        <v>6</v>
+      </c>
+      <c r="C37" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>4</v>
+      </c>
+      <c r="B38" s="3">
+        <v>7</v>
+      </c>
+      <c r="C38" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>4</v>
+      </c>
+      <c r="B39" s="3">
+        <v>8</v>
+      </c>
+      <c r="C39" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>4</v>
+      </c>
+      <c r="B40" s="3">
+        <v>9</v>
+      </c>
+      <c r="C40" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>4</v>
+      </c>
+      <c r="B41" s="3">
+        <v>10</v>
+      </c>
+      <c r="C41" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>5</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>5</v>
+      </c>
+      <c r="B43" s="3">
+        <v>2</v>
+      </c>
+      <c r="C43" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>5</v>
+      </c>
+      <c r="B44" s="3">
+        <v>3</v>
+      </c>
+      <c r="C44" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>5</v>
+      </c>
+      <c r="B45" s="3">
+        <v>4</v>
+      </c>
+      <c r="C45" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>5</v>
+      </c>
+      <c r="B46" s="3">
+        <v>5</v>
+      </c>
+      <c r="C46" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>5</v>
+      </c>
+      <c r="B47" s="3">
+        <v>6</v>
+      </c>
+      <c r="C47" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>5</v>
+      </c>
+      <c r="B48" s="3">
+        <v>7</v>
+      </c>
+      <c r="C48" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>5</v>
+      </c>
+      <c r="B49" s="3">
+        <v>8</v>
+      </c>
+      <c r="C49" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>5</v>
+      </c>
+      <c r="B50" s="3">
+        <v>9</v>
+      </c>
+      <c r="C50" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>5</v>
+      </c>
+      <c r="B51" s="3">
+        <v>10</v>
+      </c>
+      <c r="C51" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>6</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1</v>
+      </c>
+      <c r="C52" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>6</v>
+      </c>
+      <c r="B53" s="3">
+        <v>2</v>
+      </c>
+      <c r="C53" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>6</v>
+      </c>
+      <c r="B54" s="3">
+        <v>3</v>
+      </c>
+      <c r="C54" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>6</v>
+      </c>
+      <c r="B55" s="3">
+        <v>4</v>
+      </c>
+      <c r="C55" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>6</v>
+      </c>
+      <c r="B56" s="3">
+        <v>5</v>
+      </c>
+      <c r="C56" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>6</v>
+      </c>
+      <c r="B57" s="3">
+        <v>6</v>
+      </c>
+      <c r="C57" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>6</v>
+      </c>
+      <c r="B58" s="3">
+        <v>7</v>
+      </c>
+      <c r="C58" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>6</v>
+      </c>
+      <c r="B59" s="3">
+        <v>8</v>
+      </c>
+      <c r="C59" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>6</v>
+      </c>
+      <c r="B60" s="3">
+        <v>9</v>
+      </c>
+      <c r="C60" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>6</v>
+      </c>
+      <c r="B61" s="3">
+        <v>10</v>
+      </c>
+      <c r="C61" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>7</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1</v>
+      </c>
+      <c r="C62" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>7</v>
+      </c>
+      <c r="B63" s="3">
+        <v>2</v>
+      </c>
+      <c r="C63" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>7</v>
+      </c>
+      <c r="B64" s="3">
+        <v>3</v>
+      </c>
+      <c r="C64" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>7</v>
+      </c>
+      <c r="B65" s="3">
+        <v>4</v>
+      </c>
+      <c r="C65" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>7</v>
+      </c>
+      <c r="B66" s="3">
+        <v>5</v>
+      </c>
+      <c r="C66" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>7</v>
+      </c>
+      <c r="B67" s="3">
+        <v>6</v>
+      </c>
+      <c r="C67" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>7</v>
+      </c>
+      <c r="B68" s="3">
+        <v>7</v>
+      </c>
+      <c r="C68" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>7</v>
+      </c>
+      <c r="B69" s="3">
+        <v>8</v>
+      </c>
+      <c r="C69" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>7</v>
+      </c>
+      <c r="B70" s="3">
+        <v>9</v>
+      </c>
+      <c r="C70" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>7</v>
+      </c>
+      <c r="B71" s="3">
+        <v>10</v>
+      </c>
+      <c r="C71" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>8</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1</v>
+      </c>
+      <c r="C72" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>8</v>
+      </c>
+      <c r="B73" s="3">
+        <v>2</v>
+      </c>
+      <c r="C73" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>8</v>
+      </c>
+      <c r="B74" s="3">
+        <v>3</v>
+      </c>
+      <c r="C74" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>8</v>
+      </c>
+      <c r="B75" s="3">
+        <v>4</v>
+      </c>
+      <c r="C75" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>8</v>
+      </c>
+      <c r="B76" s="3">
+        <v>5</v>
+      </c>
+      <c r="C76" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>8</v>
+      </c>
+      <c r="B77" s="3">
+        <v>6</v>
+      </c>
+      <c r="C77" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>8</v>
+      </c>
+      <c r="B78" s="3">
+        <v>7</v>
+      </c>
+      <c r="C78" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>8</v>
+      </c>
+      <c r="B79" s="3">
+        <v>8</v>
+      </c>
+      <c r="C79" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>8</v>
+      </c>
+      <c r="B80" s="3">
+        <v>9</v>
+      </c>
+      <c r="C80" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>8</v>
+      </c>
+      <c r="B81" s="3">
+        <v>10</v>
+      </c>
+      <c r="C81" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>9</v>
+      </c>
+      <c r="B82" s="3">
+        <v>1</v>
+      </c>
+      <c r="C82" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>9</v>
+      </c>
+      <c r="B83" s="3">
+        <v>2</v>
+      </c>
+      <c r="C83" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>9</v>
+      </c>
+      <c r="B84" s="3">
+        <v>3</v>
+      </c>
+      <c r="C84" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>9</v>
+      </c>
+      <c r="B85" s="3">
+        <v>4</v>
+      </c>
+      <c r="C85" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>9</v>
+      </c>
+      <c r="B86" s="3">
+        <v>5</v>
+      </c>
+      <c r="C86" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>9</v>
+      </c>
+      <c r="B87" s="3">
+        <v>6</v>
+      </c>
+      <c r="C87" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>9</v>
+      </c>
+      <c r="B88" s="3">
+        <v>7</v>
+      </c>
+      <c r="C88" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>9</v>
+      </c>
+      <c r="B89" s="3">
+        <v>8</v>
+      </c>
+      <c r="C89" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>9</v>
+      </c>
+      <c r="B90" s="3">
+        <v>9</v>
+      </c>
+      <c r="C90" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>9</v>
+      </c>
+      <c r="B91" s="3">
+        <v>10</v>
+      </c>
+      <c r="C91" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>10</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1</v>
+      </c>
+      <c r="C92" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>10</v>
+      </c>
+      <c r="B93" s="3">
+        <v>2</v>
+      </c>
+      <c r="C93" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>10</v>
+      </c>
+      <c r="B94" s="3">
+        <v>3</v>
+      </c>
+      <c r="C94" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>10</v>
+      </c>
+      <c r="B95" s="3">
+        <v>4</v>
+      </c>
+      <c r="C95" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>10</v>
+      </c>
+      <c r="B96" s="3">
+        <v>5</v>
+      </c>
+      <c r="C96" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>10</v>
+      </c>
+      <c r="B97" s="3">
+        <v>6</v>
+      </c>
+      <c r="C97" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>10</v>
+      </c>
+      <c r="B98" s="3">
+        <v>7</v>
+      </c>
+      <c r="C98" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>10</v>
+      </c>
+      <c r="B99" s="3">
+        <v>8</v>
+      </c>
+      <c r="C99" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>10</v>
+      </c>
+      <c r="B100" s="3">
+        <v>9</v>
+      </c>
+      <c r="C100" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>10</v>
+      </c>
+      <c r="B101" s="3">
+        <v>10</v>
+      </c>
+      <c r="C101" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="B102" s="3">
+        <v>1</v>
+      </c>
+      <c r="C102" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>11</v>
+      </c>
+      <c r="B103" s="3">
+        <v>2</v>
+      </c>
+      <c r="C103" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>11</v>
+      </c>
+      <c r="B104" s="3">
+        <v>3</v>
+      </c>
+      <c r="C104" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>11</v>
+      </c>
+      <c r="B105" s="3">
+        <v>4</v>
+      </c>
+      <c r="C105" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>11</v>
+      </c>
+      <c r="B106" s="3">
+        <v>5</v>
+      </c>
+      <c r="C106" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>11</v>
+      </c>
+      <c r="B107" s="3">
+        <v>6</v>
+      </c>
+      <c r="C107" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>11</v>
+      </c>
+      <c r="B108" s="3">
+        <v>7</v>
+      </c>
+      <c r="C108" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>11</v>
+      </c>
+      <c r="B109" s="3">
+        <v>8</v>
+      </c>
+      <c r="C109" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>11</v>
+      </c>
+      <c r="B110" s="3">
+        <v>9</v>
+      </c>
+      <c r="C110" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>11</v>
+      </c>
+      <c r="B111" s="3">
+        <v>10</v>
+      </c>
+      <c r="C111" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="B112" s="3">
+        <v>1</v>
+      </c>
+      <c r="C112" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>12</v>
+      </c>
+      <c r="B113" s="3">
+        <v>2</v>
+      </c>
+      <c r="C113" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>12</v>
+      </c>
+      <c r="B114" s="3">
+        <v>3</v>
+      </c>
+      <c r="C114" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>12</v>
+      </c>
+      <c r="B115" s="3">
+        <v>4</v>
+      </c>
+      <c r="C115" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>12</v>
+      </c>
+      <c r="B116" s="3">
+        <v>5</v>
+      </c>
+      <c r="C116" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>12</v>
+      </c>
+      <c r="B117" s="3">
+        <v>6</v>
+      </c>
+      <c r="C117" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <v>12</v>
+      </c>
+      <c r="B118" s="3">
+        <v>7</v>
+      </c>
+      <c r="C118" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <v>12</v>
+      </c>
+      <c r="B119" s="3">
+        <v>8</v>
+      </c>
+      <c r="C119" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>12</v>
+      </c>
+      <c r="B120" s="3">
+        <v>9</v>
+      </c>
+      <c r="C120" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <v>12</v>
+      </c>
+      <c r="B121" s="3">
+        <v>10</v>
+      </c>
+      <c r="C121" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="B122" s="3">
+        <v>1</v>
+      </c>
+      <c r="C122" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>13</v>
+      </c>
+      <c r="B123" s="3">
+        <v>2</v>
+      </c>
+      <c r="C123" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <v>13</v>
+      </c>
+      <c r="B124" s="3">
+        <v>3</v>
+      </c>
+      <c r="C124" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>13</v>
+      </c>
+      <c r="B125" s="3">
+        <v>4</v>
+      </c>
+      <c r="C125" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>13</v>
+      </c>
+      <c r="B126" s="3">
+        <v>5</v>
+      </c>
+      <c r="C126" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <v>13</v>
+      </c>
+      <c r="B127" s="3">
+        <v>6</v>
+      </c>
+      <c r="C127" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <v>13</v>
+      </c>
+      <c r="B128" s="3">
+        <v>7</v>
+      </c>
+      <c r="C128" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
+        <v>13</v>
+      </c>
+      <c r="B129" s="3">
+        <v>8</v>
+      </c>
+      <c r="C129" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <v>13</v>
+      </c>
+      <c r="B130" s="3">
+        <v>9</v>
+      </c>
+      <c r="C130" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <v>13</v>
+      </c>
+      <c r="B131" s="3">
+        <v>10</v>
+      </c>
+      <c r="C131" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="B132" s="3">
+        <v>1</v>
+      </c>
+      <c r="C132" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
+        <v>14</v>
+      </c>
+      <c r="B133" s="3">
+        <v>2</v>
+      </c>
+      <c r="C133" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
+        <v>14</v>
+      </c>
+      <c r="B134" s="3">
+        <v>3</v>
+      </c>
+      <c r="C134" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
+        <v>14</v>
+      </c>
+      <c r="B135" s="3">
+        <v>4</v>
+      </c>
+      <c r="C135" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
+        <v>14</v>
+      </c>
+      <c r="B136" s="3">
+        <v>5</v>
+      </c>
+      <c r="C136" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
+        <v>14</v>
+      </c>
+      <c r="B137" s="3">
+        <v>6</v>
+      </c>
+      <c r="C137" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
+        <v>14</v>
+      </c>
+      <c r="B138" s="3">
+        <v>7</v>
+      </c>
+      <c r="C138" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
+        <v>14</v>
+      </c>
+      <c r="B139" s="3">
+        <v>8</v>
+      </c>
+      <c r="C139" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
+        <v>14</v>
+      </c>
+      <c r="B140" s="3">
+        <v>9</v>
+      </c>
+      <c r="C140" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
+        <v>14</v>
+      </c>
+      <c r="B141" s="3">
+        <v>10</v>
+      </c>
+      <c r="C141" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="B142" s="3">
+        <v>1</v>
+      </c>
+      <c r="C142" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
+        <v>15</v>
+      </c>
+      <c r="B143" s="3">
+        <v>2</v>
+      </c>
+      <c r="C143" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
+        <v>15</v>
+      </c>
+      <c r="B144" s="3">
+        <v>3</v>
+      </c>
+      <c r="C144" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
+        <v>15</v>
+      </c>
+      <c r="B145" s="3">
+        <v>4</v>
+      </c>
+      <c r="C145" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
+        <v>15</v>
+      </c>
+      <c r="B146" s="3">
+        <v>5</v>
+      </c>
+      <c r="C146" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
+        <v>15</v>
+      </c>
+      <c r="B147" s="3">
+        <v>6</v>
+      </c>
+      <c r="C147" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
+        <v>15</v>
+      </c>
+      <c r="B148" s="3">
+        <v>7</v>
+      </c>
+      <c r="C148" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
+        <v>15</v>
+      </c>
+      <c r="B149" s="3">
+        <v>8</v>
+      </c>
+      <c r="C149" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
+        <v>15</v>
+      </c>
+      <c r="B150" s="3">
+        <v>9</v>
+      </c>
+      <c r="C150" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
+        <v>15</v>
+      </c>
+      <c r="B151" s="3">
+        <v>10</v>
+      </c>
+      <c r="C151" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="B152" s="3">
+        <v>1</v>
+      </c>
+      <c r="C152" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
+        <v>16</v>
+      </c>
+      <c r="B153" s="3">
+        <v>2</v>
+      </c>
+      <c r="C153" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
+        <v>16</v>
+      </c>
+      <c r="B154" s="3">
+        <v>3</v>
+      </c>
+      <c r="C154" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
+        <v>16</v>
+      </c>
+      <c r="B155" s="3">
+        <v>4</v>
+      </c>
+      <c r="C155" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="3">
+        <v>16</v>
+      </c>
+      <c r="B156" s="3">
+        <v>5</v>
+      </c>
+      <c r="C156" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="3">
+        <v>16</v>
+      </c>
+      <c r="B157" s="3">
+        <v>6</v>
+      </c>
+      <c r="C157" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="3">
+        <v>16</v>
+      </c>
+      <c r="B158" s="3">
+        <v>7</v>
+      </c>
+      <c r="C158" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="3">
+        <v>16</v>
+      </c>
+      <c r="B159" s="3">
+        <v>8</v>
+      </c>
+      <c r="C159" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="3">
+        <v>16</v>
+      </c>
+      <c r="B160" s="3">
+        <v>9</v>
+      </c>
+      <c r="C160" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="3">
+        <v>16</v>
+      </c>
+      <c r="B161" s="3">
+        <v>10</v>
+      </c>
+      <c r="C161" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="B162" s="3">
+        <v>1</v>
+      </c>
+      <c r="C162" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="3">
+        <v>17</v>
+      </c>
+      <c r="B163" s="3">
+        <v>2</v>
+      </c>
+      <c r="C163" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="3">
+        <v>17</v>
+      </c>
+      <c r="B164" s="3">
+        <v>3</v>
+      </c>
+      <c r="C164" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="3">
+        <v>17</v>
+      </c>
+      <c r="B165" s="3">
+        <v>4</v>
+      </c>
+      <c r="C165" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="3">
+        <v>17</v>
+      </c>
+      <c r="B166" s="3">
+        <v>5</v>
+      </c>
+      <c r="C166" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="3">
+        <v>17</v>
+      </c>
+      <c r="B167" s="3">
+        <v>6</v>
+      </c>
+      <c r="C167" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="3">
+        <v>17</v>
+      </c>
+      <c r="B168" s="3">
+        <v>7</v>
+      </c>
+      <c r="C168" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="3">
+        <v>17</v>
+      </c>
+      <c r="B169" s="3">
+        <v>8</v>
+      </c>
+      <c r="C169" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="3">
+        <v>17</v>
+      </c>
+      <c r="B170" s="3">
+        <v>9</v>
+      </c>
+      <c r="C170" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="3">
+        <v>17</v>
+      </c>
+      <c r="B171" s="3">
+        <v>10</v>
+      </c>
+      <c r="C171" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="B172" s="3">
+        <v>1</v>
+      </c>
+      <c r="C172" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="3">
+        <v>18</v>
+      </c>
+      <c r="B173" s="3">
+        <v>2</v>
+      </c>
+      <c r="C173" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="3">
+        <v>18</v>
+      </c>
+      <c r="B174" s="3">
+        <v>3</v>
+      </c>
+      <c r="C174" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="3">
+        <v>18</v>
+      </c>
+      <c r="B175" s="3">
+        <v>4</v>
+      </c>
+      <c r="C175" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="3">
+        <v>18</v>
+      </c>
+      <c r="B176" s="3">
+        <v>5</v>
+      </c>
+      <c r="C176" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="3">
+        <v>18</v>
+      </c>
+      <c r="B177" s="3">
+        <v>6</v>
+      </c>
+      <c r="C177" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="3">
+        <v>18</v>
+      </c>
+      <c r="B178" s="3">
+        <v>7</v>
+      </c>
+      <c r="C178" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="3">
+        <v>18</v>
+      </c>
+      <c r="B179" s="3">
+        <v>8</v>
+      </c>
+      <c r="C179" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="3">
+        <v>18</v>
+      </c>
+      <c r="B180" s="3">
+        <v>9</v>
+      </c>
+      <c r="C180" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="3">
+        <v>18</v>
+      </c>
+      <c r="B181" s="3">
+        <v>10</v>
+      </c>
+      <c r="C181" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="B182" s="3">
+        <v>1</v>
+      </c>
+      <c r="C182" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="3">
+        <v>19</v>
+      </c>
+      <c r="B183" s="3">
+        <v>2</v>
+      </c>
+      <c r="C183" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="3">
+        <v>19</v>
+      </c>
+      <c r="B184" s="3">
+        <v>3</v>
+      </c>
+      <c r="C184" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="3">
+        <v>19</v>
+      </c>
+      <c r="B185" s="3">
+        <v>4</v>
+      </c>
+      <c r="C185" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="3">
+        <v>19</v>
+      </c>
+      <c r="B186" s="3">
+        <v>5</v>
+      </c>
+      <c r="C186" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="3">
+        <v>19</v>
+      </c>
+      <c r="B187" s="3">
+        <v>6</v>
+      </c>
+      <c r="C187" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="3">
+        <v>19</v>
+      </c>
+      <c r="B188" s="3">
+        <v>7</v>
+      </c>
+      <c r="C188" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="3">
+        <v>19</v>
+      </c>
+      <c r="B189" s="3">
+        <v>8</v>
+      </c>
+      <c r="C189" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="3">
+        <v>19</v>
+      </c>
+      <c r="B190" s="3">
+        <v>9</v>
+      </c>
+      <c r="C190" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="3">
+        <v>19</v>
+      </c>
+      <c r="B191" s="3">
+        <v>10</v>
+      </c>
+      <c r="C191" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="3">
         <v>20</v>
       </c>
+      <c r="B192" s="3">
+        <v>1</v>
+      </c>
+      <c r="C192" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="3">
+        <v>20</v>
+      </c>
+      <c r="B193" s="3">
+        <v>2</v>
+      </c>
+      <c r="C193" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="3">
+        <v>20</v>
+      </c>
+      <c r="B194" s="3">
+        <v>3</v>
+      </c>
+      <c r="C194" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="3">
+        <v>20</v>
+      </c>
+      <c r="B195" s="3">
+        <v>4</v>
+      </c>
+      <c r="C195" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="3">
+        <v>20</v>
+      </c>
+      <c r="B196" s="3">
+        <v>5</v>
+      </c>
+      <c r="C196" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="3">
+        <v>20</v>
+      </c>
+      <c r="B197" s="3">
+        <v>6</v>
+      </c>
+      <c r="C197" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="3">
+        <v>20</v>
+      </c>
+      <c r="B198" s="3">
+        <v>7</v>
+      </c>
+      <c r="C198" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="3">
+        <v>20</v>
+      </c>
+      <c r="B199" s="3">
+        <v>8</v>
+      </c>
+      <c r="C199" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="3">
+        <v>20</v>
+      </c>
+      <c r="B200" s="3">
+        <v>9</v>
+      </c>
+      <c r="C200" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="3">
+        <v>20</v>
+      </c>
+      <c r="B201" s="3">
+        <v>10</v>
+      </c>
+      <c r="C201" s="3">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="containsText" dxfId="2" priority="2" stopIfTrue="1" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" stopIfTrue="1" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -429,14 +429,14 @@
   <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.83203125" style="8" bestFit="1" customWidth="1"/>
@@ -447,10 +447,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -467,13 +467,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="C2" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="5">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="E2" s="5">
         <v>429.81</v>
@@ -487,10 +487,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="C3" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="5">
         <v>4.5609999999999999</v>
@@ -507,7 +507,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -527,10 +527,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>4</v>
+        <v>3000</v>
       </c>
       <c r="C5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="5">
         <v>6.7329999999999997</v>
@@ -547,10 +547,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="3">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="C6" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" s="5">
         <v>15.34</v>
@@ -567,10 +567,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="3">
-        <v>6</v>
+        <v>3000</v>
       </c>
       <c r="C7" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" s="5">
         <v>8.3610000000000007</v>
@@ -587,10 +587,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="C8" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D8" s="6">
         <v>4.984</v>
@@ -607,10 +607,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C9" s="3">
         <v>8</v>
-      </c>
-      <c r="C9" s="3">
-        <v>3</v>
       </c>
       <c r="D9" s="5">
         <v>2.387</v>
@@ -627,10 +627,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C10" s="3">
         <v>9</v>
-      </c>
-      <c r="C10" s="3">
-        <v>3</v>
       </c>
       <c r="D10" s="5">
         <v>7.5810000000000004</v>
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C11" s="3">
         <v>10</v>
-      </c>
-      <c r="C11" s="3">
-        <v>3</v>
       </c>
       <c r="D11" s="5">
         <v>13.13</v>
@@ -667,10 +667,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="3">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="C12" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" s="5">
         <v>719.09</v>
@@ -687,10 +687,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="3">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="C13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5">
         <v>5.8879999999999999</v>
@@ -707,7 +707,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="3">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
@@ -727,10 +727,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="3">
-        <v>4</v>
+        <v>3000</v>
       </c>
       <c r="C15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" s="5">
         <v>5.6230000000000002</v>
@@ -747,10 +747,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="3">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="C16" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" s="5">
         <v>14.75</v>
@@ -767,10 +767,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="3">
-        <v>6</v>
+        <v>3000</v>
       </c>
       <c r="C17" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D17" s="5">
         <v>9.4369999999999994</v>
@@ -787,10 +787,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="3">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="C18" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D18" s="5">
         <v>5.399</v>
@@ -807,10 +807,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C19" s="3">
         <v>8</v>
-      </c>
-      <c r="C19" s="3">
-        <v>3</v>
       </c>
       <c r="D19" s="5">
         <v>4.3339999999999996</v>
@@ -827,10 +827,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C20" s="3">
         <v>9</v>
-      </c>
-      <c r="C20" s="3">
-        <v>3</v>
       </c>
       <c r="D20" s="5">
         <v>10.71</v>
@@ -847,10 +847,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C21" s="3">
         <v>10</v>
-      </c>
-      <c r="C21" s="3">
-        <v>3</v>
       </c>
       <c r="D21" s="5">
         <v>12.01</v>
@@ -867,10 +867,10 @@
         <v>3</v>
       </c>
       <c r="B22" s="3">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="C22" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" s="5">
         <v>8.6869999999999994</v>
@@ -887,10 +887,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="3">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="C23" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="5">
         <v>6.8449999999999998</v>
@@ -907,7 +907,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="3">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="C24" s="3">
         <v>3</v>
@@ -927,10 +927,10 @@
         <v>3</v>
       </c>
       <c r="B25" s="3">
-        <v>4</v>
+        <v>3000</v>
       </c>
       <c r="C25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" s="5">
         <v>7.8540000000000001</v>
@@ -947,10 +947,10 @@
         <v>3</v>
       </c>
       <c r="B26" s="3">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="C26" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" s="5">
         <v>6.5510000000000002</v>
@@ -967,10 +967,10 @@
         <v>3</v>
       </c>
       <c r="B27" s="3">
-        <v>6</v>
+        <v>3000</v>
       </c>
       <c r="C27" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D27" s="5">
         <v>8.0559999999999992</v>
@@ -987,10 +987,10 @@
         <v>3</v>
       </c>
       <c r="B28" s="3">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="C28" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D28" s="5">
         <v>7.49</v>
@@ -1007,10 +1007,10 @@
         <v>3</v>
       </c>
       <c r="B29" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C29" s="3">
         <v>8</v>
-      </c>
-      <c r="C29" s="3">
-        <v>3</v>
       </c>
       <c r="D29" s="5">
         <v>6.4379999999999997</v>
@@ -1027,10 +1027,10 @@
         <v>3</v>
       </c>
       <c r="B30" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C30" s="3">
         <v>9</v>
-      </c>
-      <c r="C30" s="3">
-        <v>3</v>
       </c>
       <c r="D30" s="5">
         <v>5.45</v>
@@ -1047,10 +1047,10 @@
         <v>3</v>
       </c>
       <c r="B31" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C31" s="3">
         <v>10</v>
-      </c>
-      <c r="C31" s="3">
-        <v>3</v>
       </c>
       <c r="D31" s="5">
         <v>26.87</v>
@@ -1067,10 +1067,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="3">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="C32" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1078,10 +1078,10 @@
         <v>4</v>
       </c>
       <c r="B33" s="3">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="C33" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1089,7 +1089,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="3">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="C34" s="3">
         <v>3</v>
@@ -1100,10 +1100,10 @@
         <v>4</v>
       </c>
       <c r="B35" s="3">
-        <v>4</v>
+        <v>3000</v>
       </c>
       <c r="C35" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1111,10 +1111,10 @@
         <v>4</v>
       </c>
       <c r="B36" s="3">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="C36" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1122,10 +1122,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="3">
-        <v>6</v>
+        <v>3000</v>
       </c>
       <c r="C37" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1133,10 +1133,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="3">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="C38" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1144,10 +1144,10 @@
         <v>4</v>
       </c>
       <c r="B39" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C39" s="3">
         <v>8</v>
-      </c>
-      <c r="C39" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1155,10 +1155,10 @@
         <v>4</v>
       </c>
       <c r="B40" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C40" s="3">
         <v>9</v>
-      </c>
-      <c r="C40" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1166,10 +1166,10 @@
         <v>4</v>
       </c>
       <c r="B41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C41" s="3">
         <v>10</v>
-      </c>
-      <c r="C41" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1177,10 +1177,10 @@
         <v>5</v>
       </c>
       <c r="B42" s="3">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="C42" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1188,10 +1188,10 @@
         <v>5</v>
       </c>
       <c r="B43" s="3">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="C43" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1199,7 +1199,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="3">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="C44" s="3">
         <v>3</v>
@@ -1210,10 +1210,10 @@
         <v>5</v>
       </c>
       <c r="B45" s="3">
-        <v>4</v>
+        <v>3000</v>
       </c>
       <c r="C45" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1221,10 +1221,10 @@
         <v>5</v>
       </c>
       <c r="B46" s="3">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="C46" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1232,10 +1232,10 @@
         <v>5</v>
       </c>
       <c r="B47" s="3">
-        <v>6</v>
+        <v>3000</v>
       </c>
       <c r="C47" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1243,10 +1243,10 @@
         <v>5</v>
       </c>
       <c r="B48" s="3">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="C48" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1254,10 +1254,10 @@
         <v>5</v>
       </c>
       <c r="B49" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C49" s="3">
         <v>8</v>
-      </c>
-      <c r="C49" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1265,10 +1265,10 @@
         <v>5</v>
       </c>
       <c r="B50" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C50" s="3">
         <v>9</v>
-      </c>
-      <c r="C50" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1276,10 +1276,10 @@
         <v>5</v>
       </c>
       <c r="B51" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C51" s="3">
         <v>10</v>
-      </c>
-      <c r="C51" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1287,10 +1287,10 @@
         <v>6</v>
       </c>
       <c r="B52" s="3">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="C52" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1298,10 +1298,10 @@
         <v>6</v>
       </c>
       <c r="B53" s="3">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="C53" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1309,7 +1309,7 @@
         <v>6</v>
       </c>
       <c r="B54" s="3">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="C54" s="3">
         <v>3</v>
@@ -1320,10 +1320,10 @@
         <v>6</v>
       </c>
       <c r="B55" s="3">
-        <v>4</v>
+        <v>3000</v>
       </c>
       <c r="C55" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1331,10 +1331,10 @@
         <v>6</v>
       </c>
       <c r="B56" s="3">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="C56" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1342,10 +1342,10 @@
         <v>6</v>
       </c>
       <c r="B57" s="3">
-        <v>6</v>
+        <v>3000</v>
       </c>
       <c r="C57" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1353,10 +1353,10 @@
         <v>6</v>
       </c>
       <c r="B58" s="3">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="C58" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1364,10 +1364,10 @@
         <v>6</v>
       </c>
       <c r="B59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C59" s="3">
         <v>8</v>
-      </c>
-      <c r="C59" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1375,10 +1375,10 @@
         <v>6</v>
       </c>
       <c r="B60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C60" s="3">
         <v>9</v>
-      </c>
-      <c r="C60" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1386,10 +1386,10 @@
         <v>6</v>
       </c>
       <c r="B61" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C61" s="3">
         <v>10</v>
-      </c>
-      <c r="C61" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1397,10 +1397,10 @@
         <v>7</v>
       </c>
       <c r="B62" s="3">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="C62" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1408,10 +1408,10 @@
         <v>7</v>
       </c>
       <c r="B63" s="3">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="C63" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1419,7 +1419,7 @@
         <v>7</v>
       </c>
       <c r="B64" s="3">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="C64" s="3">
         <v>3</v>
@@ -1430,10 +1430,10 @@
         <v>7</v>
       </c>
       <c r="B65" s="3">
-        <v>4</v>
+        <v>3000</v>
       </c>
       <c r="C65" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1441,10 +1441,10 @@
         <v>7</v>
       </c>
       <c r="B66" s="3">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="C66" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1452,10 +1452,10 @@
         <v>7</v>
       </c>
       <c r="B67" s="3">
-        <v>6</v>
+        <v>3000</v>
       </c>
       <c r="C67" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -1463,10 +1463,10 @@
         <v>7</v>
       </c>
       <c r="B68" s="3">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="C68" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -1474,10 +1474,10 @@
         <v>7</v>
       </c>
       <c r="B69" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C69" s="3">
         <v>8</v>
-      </c>
-      <c r="C69" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -1485,10 +1485,10 @@
         <v>7</v>
       </c>
       <c r="B70" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C70" s="3">
         <v>9</v>
-      </c>
-      <c r="C70" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -1496,10 +1496,10 @@
         <v>7</v>
       </c>
       <c r="B71" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C71" s="3">
         <v>10</v>
-      </c>
-      <c r="C71" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -1507,10 +1507,10 @@
         <v>8</v>
       </c>
       <c r="B72" s="3">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="C72" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -1518,10 +1518,10 @@
         <v>8</v>
       </c>
       <c r="B73" s="3">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="C73" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -1529,7 +1529,7 @@
         <v>8</v>
       </c>
       <c r="B74" s="3">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="C74" s="3">
         <v>3</v>
@@ -1540,10 +1540,10 @@
         <v>8</v>
       </c>
       <c r="B75" s="3">
-        <v>4</v>
+        <v>3000</v>
       </c>
       <c r="C75" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -1551,10 +1551,10 @@
         <v>8</v>
       </c>
       <c r="B76" s="3">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="C76" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -1562,10 +1562,10 @@
         <v>8</v>
       </c>
       <c r="B77" s="3">
-        <v>6</v>
+        <v>3000</v>
       </c>
       <c r="C77" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -1573,10 +1573,10 @@
         <v>8</v>
       </c>
       <c r="B78" s="3">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="C78" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -1584,10 +1584,10 @@
         <v>8</v>
       </c>
       <c r="B79" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C79" s="3">
         <v>8</v>
-      </c>
-      <c r="C79" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -1595,10 +1595,10 @@
         <v>8</v>
       </c>
       <c r="B80" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C80" s="3">
         <v>9</v>
-      </c>
-      <c r="C80" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -1606,10 +1606,10 @@
         <v>8</v>
       </c>
       <c r="B81" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C81" s="3">
         <v>10</v>
-      </c>
-      <c r="C81" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -1617,10 +1617,10 @@
         <v>9</v>
       </c>
       <c r="B82" s="3">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="C82" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -1628,10 +1628,10 @@
         <v>9</v>
       </c>
       <c r="B83" s="3">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="C83" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -1639,7 +1639,7 @@
         <v>9</v>
       </c>
       <c r="B84" s="3">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="C84" s="3">
         <v>3</v>
@@ -1650,10 +1650,10 @@
         <v>9</v>
       </c>
       <c r="B85" s="3">
-        <v>4</v>
+        <v>3000</v>
       </c>
       <c r="C85" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -1661,10 +1661,10 @@
         <v>9</v>
       </c>
       <c r="B86" s="3">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="C86" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -1672,10 +1672,10 @@
         <v>9</v>
       </c>
       <c r="B87" s="3">
-        <v>6</v>
+        <v>3000</v>
       </c>
       <c r="C87" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -1683,10 +1683,10 @@
         <v>9</v>
       </c>
       <c r="B88" s="3">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="C88" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -1694,10 +1694,10 @@
         <v>9</v>
       </c>
       <c r="B89" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C89" s="3">
         <v>8</v>
-      </c>
-      <c r="C89" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -1705,10 +1705,10 @@
         <v>9</v>
       </c>
       <c r="B90" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C90" s="3">
         <v>9</v>
-      </c>
-      <c r="C90" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -1716,10 +1716,10 @@
         <v>9</v>
       </c>
       <c r="B91" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C91" s="3">
         <v>10</v>
-      </c>
-      <c r="C91" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -1727,10 +1727,10 @@
         <v>10</v>
       </c>
       <c r="B92" s="3">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="C92" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -1738,10 +1738,10 @@
         <v>10</v>
       </c>
       <c r="B93" s="3">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="C93" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -1749,7 +1749,7 @@
         <v>10</v>
       </c>
       <c r="B94" s="3">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="C94" s="3">
         <v>3</v>
@@ -1760,10 +1760,10 @@
         <v>10</v>
       </c>
       <c r="B95" s="3">
-        <v>4</v>
+        <v>3000</v>
       </c>
       <c r="C95" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -1771,10 +1771,10 @@
         <v>10</v>
       </c>
       <c r="B96" s="3">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="C96" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -1782,10 +1782,10 @@
         <v>10</v>
       </c>
       <c r="B97" s="3">
-        <v>6</v>
+        <v>3000</v>
       </c>
       <c r="C97" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -1793,10 +1793,10 @@
         <v>10</v>
       </c>
       <c r="B98" s="3">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="C98" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -1804,10 +1804,10 @@
         <v>10</v>
       </c>
       <c r="B99" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C99" s="3">
         <v>8</v>
-      </c>
-      <c r="C99" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -1815,10 +1815,10 @@
         <v>10</v>
       </c>
       <c r="B100" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C100" s="3">
         <v>9</v>
-      </c>
-      <c r="C100" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -1826,10 +1826,10 @@
         <v>10</v>
       </c>
       <c r="B101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C101" s="3">
         <v>10</v>
-      </c>
-      <c r="C101" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -1837,10 +1837,10 @@
         <v>11</v>
       </c>
       <c r="B102" s="3">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="C102" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -1848,10 +1848,10 @@
         <v>11</v>
       </c>
       <c r="B103" s="3">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="C103" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -1859,7 +1859,7 @@
         <v>11</v>
       </c>
       <c r="B104" s="3">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="C104" s="3">
         <v>3</v>
@@ -1870,10 +1870,10 @@
         <v>11</v>
       </c>
       <c r="B105" s="3">
-        <v>4</v>
+        <v>3000</v>
       </c>
       <c r="C105" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -1881,10 +1881,10 @@
         <v>11</v>
       </c>
       <c r="B106" s="3">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="C106" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -1892,10 +1892,10 @@
         <v>11</v>
       </c>
       <c r="B107" s="3">
-        <v>6</v>
+        <v>3000</v>
       </c>
       <c r="C107" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -1903,10 +1903,10 @@
         <v>11</v>
       </c>
       <c r="B108" s="3">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="C108" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -1914,10 +1914,10 @@
         <v>11</v>
       </c>
       <c r="B109" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C109" s="3">
         <v>8</v>
-      </c>
-      <c r="C109" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -1925,10 +1925,10 @@
         <v>11</v>
       </c>
       <c r="B110" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C110" s="3">
         <v>9</v>
-      </c>
-      <c r="C110" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -1936,10 +1936,10 @@
         <v>11</v>
       </c>
       <c r="B111" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C111" s="3">
         <v>10</v>
-      </c>
-      <c r="C111" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -1947,10 +1947,10 @@
         <v>12</v>
       </c>
       <c r="B112" s="3">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="C112" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -1958,10 +1958,10 @@
         <v>12</v>
       </c>
       <c r="B113" s="3">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="C113" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -1969,7 +1969,7 @@
         <v>12</v>
       </c>
       <c r="B114" s="3">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="C114" s="3">
         <v>3</v>
@@ -1980,10 +1980,10 @@
         <v>12</v>
       </c>
       <c r="B115" s="3">
-        <v>4</v>
+        <v>3000</v>
       </c>
       <c r="C115" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -1991,10 +1991,10 @@
         <v>12</v>
       </c>
       <c r="B116" s="3">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="C116" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -2002,10 +2002,10 @@
         <v>12</v>
       </c>
       <c r="B117" s="3">
-        <v>6</v>
+        <v>3000</v>
       </c>
       <c r="C117" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -2013,10 +2013,10 @@
         <v>12</v>
       </c>
       <c r="B118" s="3">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="C118" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -2024,10 +2024,10 @@
         <v>12</v>
       </c>
       <c r="B119" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C119" s="3">
         <v>8</v>
-      </c>
-      <c r="C119" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -2035,10 +2035,10 @@
         <v>12</v>
       </c>
       <c r="B120" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C120" s="3">
         <v>9</v>
-      </c>
-      <c r="C120" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -2046,10 +2046,10 @@
         <v>12</v>
       </c>
       <c r="B121" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C121" s="3">
         <v>10</v>
-      </c>
-      <c r="C121" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -2057,10 +2057,10 @@
         <v>13</v>
       </c>
       <c r="B122" s="3">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="C122" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -2068,10 +2068,10 @@
         <v>13</v>
       </c>
       <c r="B123" s="3">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="C123" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -2079,7 +2079,7 @@
         <v>13</v>
       </c>
       <c r="B124" s="3">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="C124" s="3">
         <v>3</v>
@@ -2090,10 +2090,10 @@
         <v>13</v>
       </c>
       <c r="B125" s="3">
-        <v>4</v>
+        <v>3000</v>
       </c>
       <c r="C125" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -2101,10 +2101,10 @@
         <v>13</v>
       </c>
       <c r="B126" s="3">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="C126" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -2112,10 +2112,10 @@
         <v>13</v>
       </c>
       <c r="B127" s="3">
-        <v>6</v>
+        <v>3000</v>
       </c>
       <c r="C127" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -2123,10 +2123,10 @@
         <v>13</v>
       </c>
       <c r="B128" s="3">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="C128" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -2134,10 +2134,10 @@
         <v>13</v>
       </c>
       <c r="B129" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C129" s="3">
         <v>8</v>
-      </c>
-      <c r="C129" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -2145,10 +2145,10 @@
         <v>13</v>
       </c>
       <c r="B130" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C130" s="3">
         <v>9</v>
-      </c>
-      <c r="C130" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -2156,10 +2156,10 @@
         <v>13</v>
       </c>
       <c r="B131" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C131" s="3">
         <v>10</v>
-      </c>
-      <c r="C131" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -2167,10 +2167,10 @@
         <v>14</v>
       </c>
       <c r="B132" s="3">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="C132" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -2178,10 +2178,10 @@
         <v>14</v>
       </c>
       <c r="B133" s="3">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="C133" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -2189,7 +2189,7 @@
         <v>14</v>
       </c>
       <c r="B134" s="3">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="C134" s="3">
         <v>3</v>
@@ -2200,10 +2200,10 @@
         <v>14</v>
       </c>
       <c r="B135" s="3">
-        <v>4</v>
+        <v>3000</v>
       </c>
       <c r="C135" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -2211,10 +2211,10 @@
         <v>14</v>
       </c>
       <c r="B136" s="3">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="C136" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -2222,10 +2222,10 @@
         <v>14</v>
       </c>
       <c r="B137" s="3">
-        <v>6</v>
+        <v>3000</v>
       </c>
       <c r="C137" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -2233,10 +2233,10 @@
         <v>14</v>
       </c>
       <c r="B138" s="3">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="C138" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -2244,10 +2244,10 @@
         <v>14</v>
       </c>
       <c r="B139" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C139" s="3">
         <v>8</v>
-      </c>
-      <c r="C139" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -2255,10 +2255,10 @@
         <v>14</v>
       </c>
       <c r="B140" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C140" s="3">
         <v>9</v>
-      </c>
-      <c r="C140" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -2266,10 +2266,10 @@
         <v>14</v>
       </c>
       <c r="B141" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C141" s="3">
         <v>10</v>
-      </c>
-      <c r="C141" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -2277,10 +2277,10 @@
         <v>15</v>
       </c>
       <c r="B142" s="3">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="C142" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -2288,10 +2288,10 @@
         <v>15</v>
       </c>
       <c r="B143" s="3">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="C143" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -2299,7 +2299,7 @@
         <v>15</v>
       </c>
       <c r="B144" s="3">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="C144" s="3">
         <v>3</v>
@@ -2310,10 +2310,10 @@
         <v>15</v>
       </c>
       <c r="B145" s="3">
-        <v>4</v>
+        <v>3000</v>
       </c>
       <c r="C145" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -2321,10 +2321,10 @@
         <v>15</v>
       </c>
       <c r="B146" s="3">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="C146" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -2332,10 +2332,10 @@
         <v>15</v>
       </c>
       <c r="B147" s="3">
-        <v>6</v>
+        <v>3000</v>
       </c>
       <c r="C147" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -2343,10 +2343,10 @@
         <v>15</v>
       </c>
       <c r="B148" s="3">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="C148" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -2354,10 +2354,10 @@
         <v>15</v>
       </c>
       <c r="B149" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C149" s="3">
         <v>8</v>
-      </c>
-      <c r="C149" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -2365,10 +2365,10 @@
         <v>15</v>
       </c>
       <c r="B150" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C150" s="3">
         <v>9</v>
-      </c>
-      <c r="C150" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -2376,10 +2376,10 @@
         <v>15</v>
       </c>
       <c r="B151" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C151" s="3">
         <v>10</v>
-      </c>
-      <c r="C151" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -2387,10 +2387,10 @@
         <v>16</v>
       </c>
       <c r="B152" s="3">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="C152" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -2398,10 +2398,10 @@
         <v>16</v>
       </c>
       <c r="B153" s="3">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="C153" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -2409,7 +2409,7 @@
         <v>16</v>
       </c>
       <c r="B154" s="3">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="C154" s="3">
         <v>3</v>
@@ -2420,10 +2420,10 @@
         <v>16</v>
       </c>
       <c r="B155" s="3">
-        <v>4</v>
+        <v>3000</v>
       </c>
       <c r="C155" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -2431,10 +2431,10 @@
         <v>16</v>
       </c>
       <c r="B156" s="3">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="C156" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -2442,10 +2442,10 @@
         <v>16</v>
       </c>
       <c r="B157" s="3">
-        <v>6</v>
+        <v>3000</v>
       </c>
       <c r="C157" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -2453,10 +2453,10 @@
         <v>16</v>
       </c>
       <c r="B158" s="3">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="C158" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -2464,10 +2464,10 @@
         <v>16</v>
       </c>
       <c r="B159" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C159" s="3">
         <v>8</v>
-      </c>
-      <c r="C159" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -2475,10 +2475,10 @@
         <v>16</v>
       </c>
       <c r="B160" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C160" s="3">
         <v>9</v>
-      </c>
-      <c r="C160" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -2486,10 +2486,10 @@
         <v>16</v>
       </c>
       <c r="B161" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C161" s="3">
         <v>10</v>
-      </c>
-      <c r="C161" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -2497,10 +2497,10 @@
         <v>17</v>
       </c>
       <c r="B162" s="3">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="C162" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -2508,10 +2508,10 @@
         <v>17</v>
       </c>
       <c r="B163" s="3">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="C163" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -2519,7 +2519,7 @@
         <v>17</v>
       </c>
       <c r="B164" s="3">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="C164" s="3">
         <v>3</v>
@@ -2530,10 +2530,10 @@
         <v>17</v>
       </c>
       <c r="B165" s="3">
-        <v>4</v>
+        <v>3000</v>
       </c>
       <c r="C165" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -2541,10 +2541,10 @@
         <v>17</v>
       </c>
       <c r="B166" s="3">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="C166" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -2552,10 +2552,10 @@
         <v>17</v>
       </c>
       <c r="B167" s="3">
-        <v>6</v>
+        <v>3000</v>
       </c>
       <c r="C167" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -2563,10 +2563,10 @@
         <v>17</v>
       </c>
       <c r="B168" s="3">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="C168" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -2574,10 +2574,10 @@
         <v>17</v>
       </c>
       <c r="B169" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C169" s="3">
         <v>8</v>
-      </c>
-      <c r="C169" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -2585,10 +2585,10 @@
         <v>17</v>
       </c>
       <c r="B170" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C170" s="3">
         <v>9</v>
-      </c>
-      <c r="C170" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -2596,10 +2596,10 @@
         <v>17</v>
       </c>
       <c r="B171" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C171" s="3">
         <v>10</v>
-      </c>
-      <c r="C171" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -2607,10 +2607,10 @@
         <v>18</v>
       </c>
       <c r="B172" s="3">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="C172" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -2618,10 +2618,10 @@
         <v>18</v>
       </c>
       <c r="B173" s="3">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="C173" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -2629,7 +2629,7 @@
         <v>18</v>
       </c>
       <c r="B174" s="3">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="C174" s="3">
         <v>3</v>
@@ -2640,10 +2640,10 @@
         <v>18</v>
       </c>
       <c r="B175" s="3">
-        <v>4</v>
+        <v>3000</v>
       </c>
       <c r="C175" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -2651,10 +2651,10 @@
         <v>18</v>
       </c>
       <c r="B176" s="3">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="C176" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -2662,10 +2662,10 @@
         <v>18</v>
       </c>
       <c r="B177" s="3">
-        <v>6</v>
+        <v>3000</v>
       </c>
       <c r="C177" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -2673,10 +2673,10 @@
         <v>18</v>
       </c>
       <c r="B178" s="3">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="C178" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -2684,10 +2684,10 @@
         <v>18</v>
       </c>
       <c r="B179" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C179" s="3">
         <v>8</v>
-      </c>
-      <c r="C179" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -2695,10 +2695,10 @@
         <v>18</v>
       </c>
       <c r="B180" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C180" s="3">
         <v>9</v>
-      </c>
-      <c r="C180" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -2706,10 +2706,10 @@
         <v>18</v>
       </c>
       <c r="B181" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C181" s="3">
         <v>10</v>
-      </c>
-      <c r="C181" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -2717,10 +2717,10 @@
         <v>19</v>
       </c>
       <c r="B182" s="3">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="C182" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -2728,10 +2728,10 @@
         <v>19</v>
       </c>
       <c r="B183" s="3">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="C183" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -2739,7 +2739,7 @@
         <v>19</v>
       </c>
       <c r="B184" s="3">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="C184" s="3">
         <v>3</v>
@@ -2750,10 +2750,10 @@
         <v>19</v>
       </c>
       <c r="B185" s="3">
-        <v>4</v>
+        <v>3000</v>
       </c>
       <c r="C185" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -2761,10 +2761,10 @@
         <v>19</v>
       </c>
       <c r="B186" s="3">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="C186" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -2772,10 +2772,10 @@
         <v>19</v>
       </c>
       <c r="B187" s="3">
-        <v>6</v>
+        <v>3000</v>
       </c>
       <c r="C187" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -2783,10 +2783,10 @@
         <v>19</v>
       </c>
       <c r="B188" s="3">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="C188" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -2794,10 +2794,10 @@
         <v>19</v>
       </c>
       <c r="B189" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C189" s="3">
         <v>8</v>
-      </c>
-      <c r="C189" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -2805,10 +2805,10 @@
         <v>19</v>
       </c>
       <c r="B190" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C190" s="3">
         <v>9</v>
-      </c>
-      <c r="C190" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -2816,10 +2816,10 @@
         <v>19</v>
       </c>
       <c r="B191" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C191" s="3">
         <v>10</v>
-      </c>
-      <c r="C191" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -2827,10 +2827,10 @@
         <v>20</v>
       </c>
       <c r="B192" s="3">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="C192" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -2838,10 +2838,10 @@
         <v>20</v>
       </c>
       <c r="B193" s="3">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="C193" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -2849,7 +2849,7 @@
         <v>20</v>
       </c>
       <c r="B194" s="3">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="C194" s="3">
         <v>3</v>
@@ -2860,10 +2860,10 @@
         <v>20</v>
       </c>
       <c r="B195" s="3">
-        <v>4</v>
+        <v>3000</v>
       </c>
       <c r="C195" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -2871,10 +2871,10 @@
         <v>20</v>
       </c>
       <c r="B196" s="3">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="C196" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -2882,10 +2882,10 @@
         <v>20</v>
       </c>
       <c r="B197" s="3">
-        <v>6</v>
+        <v>3000</v>
       </c>
       <c r="C197" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -2893,10 +2893,10 @@
         <v>20</v>
       </c>
       <c r="B198" s="3">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="C198" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -2904,10 +2904,10 @@
         <v>20</v>
       </c>
       <c r="B199" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C199" s="3">
         <v>8</v>
-      </c>
-      <c r="C199" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -2915,10 +2915,10 @@
         <v>20</v>
       </c>
       <c r="B200" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C200" s="3">
         <v>9</v>
-      </c>
-      <c r="C200" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -2926,19 +2926,19 @@
         <v>20</v>
       </c>
       <c r="B201" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C201" s="3">
         <v>10</v>
-      </c>
-      <c r="C201" s="3">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="2" priority="2" stopIfTrue="1" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",F1)))</formula>
-    </cfRule>
     <cfRule type="containsText" dxfId="1" priority="1" stopIfTrue="1" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" stopIfTrue="1" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -429,13 +429,13 @@
   <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
@@ -444,10 +444,10 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
@@ -464,10 +464,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="B2" s="3">
-        <v>3000</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -484,10 +484,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="B3" s="3">
-        <v>3000</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -504,10 +504,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="B4" s="3">
-        <v>3000</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -524,10 +524,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="B5" s="3">
-        <v>3000</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
@@ -544,10 +544,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="B6" s="3">
-        <v>3000</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
@@ -564,10 +564,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="B7" s="3">
-        <v>3000</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
@@ -584,10 +584,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="B8" s="3">
-        <v>3000</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3">
         <v>7</v>
@@ -604,10 +604,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="B9" s="3">
-        <v>3000</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3">
         <v>8</v>
@@ -624,10 +624,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="B10" s="3">
-        <v>3000</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
         <v>9</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="B11" s="3">
-        <v>3000</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3">
         <v>10</v>
@@ -664,19 +664,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="B12" s="3">
-        <v>3000</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="5">
+        <v>10.17</v>
+      </c>
+      <c r="E12" s="5">
         <v>719.09</v>
-      </c>
-      <c r="E12" s="5">
-        <v>10.17</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>6</v>
@@ -684,10 +684,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="B13" s="3">
-        <v>3000</v>
+        <v>2</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
@@ -704,10 +704,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="B14" s="3">
-        <v>3000</v>
+        <v>2</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
@@ -724,10 +724,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="B15" s="3">
-        <v>3000</v>
+        <v>2</v>
       </c>
       <c r="C15" s="3">
         <v>4</v>
@@ -744,10 +744,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="B16" s="3">
-        <v>3000</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3">
         <v>5</v>
@@ -764,10 +764,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="B17" s="3">
-        <v>3000</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3">
         <v>6</v>
@@ -784,10 +784,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="B18" s="3">
-        <v>3000</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3">
         <v>7</v>
@@ -804,10 +804,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="B19" s="3">
-        <v>3000</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3">
         <v>8</v>
@@ -824,10 +824,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="B20" s="3">
-        <v>3000</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3">
         <v>9</v>
@@ -844,10 +844,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="B21" s="3">
-        <v>3000</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3">
         <v>10</v>
@@ -864,10 +864,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="B22" s="3">
-        <v>3000</v>
+        <v>3</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -884,10 +884,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="B23" s="3">
-        <v>3000</v>
+        <v>3</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="B24" s="3">
-        <v>3000</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3">
         <v>3</v>
@@ -924,10 +924,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="B25" s="3">
-        <v>3000</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3">
         <v>4</v>
@@ -944,10 +944,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="B26" s="3">
-        <v>3000</v>
+        <v>3</v>
       </c>
       <c r="C26" s="3">
         <v>5</v>
@@ -964,10 +964,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="B27" s="3">
-        <v>3000</v>
+        <v>3</v>
       </c>
       <c r="C27" s="3">
         <v>6</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="B28" s="3">
-        <v>3000</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3">
         <v>7</v>
@@ -1004,10 +1004,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="B29" s="3">
-        <v>3000</v>
+        <v>3</v>
       </c>
       <c r="C29" s="3">
         <v>8</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="B30" s="3">
-        <v>3000</v>
+        <v>3</v>
       </c>
       <c r="C30" s="3">
         <v>9</v>
@@ -1044,10 +1044,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="B31" s="3">
-        <v>3000</v>
+        <v>3</v>
       </c>
       <c r="C31" s="3">
         <v>10</v>
@@ -1064,10 +1064,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>4</v>
+        <v>3000</v>
       </c>
       <c r="B32" s="3">
-        <v>3000</v>
+        <v>4</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -1075,10 +1075,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>4</v>
+        <v>3000</v>
       </c>
       <c r="B33" s="3">
-        <v>3000</v>
+        <v>4</v>
       </c>
       <c r="C33" s="3">
         <v>2</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>4</v>
+        <v>3000</v>
       </c>
       <c r="B34" s="3">
-        <v>3000</v>
+        <v>4</v>
       </c>
       <c r="C34" s="3">
         <v>3</v>
@@ -1097,10 +1097,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>4</v>
+        <v>3000</v>
       </c>
       <c r="B35" s="3">
-        <v>3000</v>
+        <v>4</v>
       </c>
       <c r="C35" s="3">
         <v>4</v>
@@ -1108,10 +1108,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>4</v>
+        <v>3000</v>
       </c>
       <c r="B36" s="3">
-        <v>3000</v>
+        <v>4</v>
       </c>
       <c r="C36" s="3">
         <v>5</v>
@@ -1119,10 +1119,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>4</v>
+        <v>3000</v>
       </c>
       <c r="B37" s="3">
-        <v>3000</v>
+        <v>4</v>
       </c>
       <c r="C37" s="3">
         <v>6</v>
@@ -1130,10 +1130,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>4</v>
+        <v>3000</v>
       </c>
       <c r="B38" s="3">
-        <v>3000</v>
+        <v>4</v>
       </c>
       <c r="C38" s="3">
         <v>7</v>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>4</v>
+        <v>3000</v>
       </c>
       <c r="B39" s="3">
-        <v>3000</v>
+        <v>4</v>
       </c>
       <c r="C39" s="3">
         <v>8</v>
@@ -1152,10 +1152,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>4</v>
+        <v>3000</v>
       </c>
       <c r="B40" s="3">
-        <v>3000</v>
+        <v>4</v>
       </c>
       <c r="C40" s="3">
         <v>9</v>
@@ -1163,10 +1163,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>4</v>
+        <v>3000</v>
       </c>
       <c r="B41" s="3">
-        <v>3000</v>
+        <v>4</v>
       </c>
       <c r="C41" s="3">
         <v>10</v>
@@ -1174,10 +1174,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="B42" s="3">
-        <v>3000</v>
+        <v>5</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -1185,10 +1185,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="B43" s="3">
-        <v>3000</v>
+        <v>5</v>
       </c>
       <c r="C43" s="3">
         <v>2</v>
@@ -1196,10 +1196,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="B44" s="3">
-        <v>3000</v>
+        <v>5</v>
       </c>
       <c r="C44" s="3">
         <v>3</v>
@@ -1207,10 +1207,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="B45" s="3">
-        <v>3000</v>
+        <v>5</v>
       </c>
       <c r="C45" s="3">
         <v>4</v>
@@ -1218,10 +1218,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="B46" s="3">
-        <v>3000</v>
+        <v>5</v>
       </c>
       <c r="C46" s="3">
         <v>5</v>
@@ -1229,10 +1229,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="B47" s="3">
-        <v>3000</v>
+        <v>5</v>
       </c>
       <c r="C47" s="3">
         <v>6</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="B48" s="3">
-        <v>3000</v>
+        <v>5</v>
       </c>
       <c r="C48" s="3">
         <v>7</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="B49" s="3">
-        <v>3000</v>
+        <v>5</v>
       </c>
       <c r="C49" s="3">
         <v>8</v>
@@ -1262,10 +1262,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="B50" s="3">
-        <v>3000</v>
+        <v>5</v>
       </c>
       <c r="C50" s="3">
         <v>9</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="B51" s="3">
-        <v>3000</v>
+        <v>5</v>
       </c>
       <c r="C51" s="3">
         <v>10</v>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>6</v>
+        <v>3000</v>
       </c>
       <c r="B52" s="3">
-        <v>3000</v>
+        <v>6</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -1295,10 +1295,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>6</v>
+        <v>3000</v>
       </c>
       <c r="B53" s="3">
-        <v>3000</v>
+        <v>6</v>
       </c>
       <c r="C53" s="3">
         <v>2</v>
@@ -1306,10 +1306,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>6</v>
+        <v>3000</v>
       </c>
       <c r="B54" s="3">
-        <v>3000</v>
+        <v>6</v>
       </c>
       <c r="C54" s="3">
         <v>3</v>
@@ -1317,10 +1317,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>6</v>
+        <v>3000</v>
       </c>
       <c r="B55" s="3">
-        <v>3000</v>
+        <v>6</v>
       </c>
       <c r="C55" s="3">
         <v>4</v>
@@ -1328,10 +1328,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>6</v>
+        <v>3000</v>
       </c>
       <c r="B56" s="3">
-        <v>3000</v>
+        <v>6</v>
       </c>
       <c r="C56" s="3">
         <v>5</v>
@@ -1339,10 +1339,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>6</v>
+        <v>3000</v>
       </c>
       <c r="B57" s="3">
-        <v>3000</v>
+        <v>6</v>
       </c>
       <c r="C57" s="3">
         <v>6</v>
@@ -1350,10 +1350,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>6</v>
+        <v>3000</v>
       </c>
       <c r="B58" s="3">
-        <v>3000</v>
+        <v>6</v>
       </c>
       <c r="C58" s="3">
         <v>7</v>
@@ -1361,10 +1361,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>6</v>
+        <v>3000</v>
       </c>
       <c r="B59" s="3">
-        <v>3000</v>
+        <v>6</v>
       </c>
       <c r="C59" s="3">
         <v>8</v>
@@ -1372,10 +1372,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>6</v>
+        <v>3000</v>
       </c>
       <c r="B60" s="3">
-        <v>3000</v>
+        <v>6</v>
       </c>
       <c r="C60" s="3">
         <v>9</v>
@@ -1383,10 +1383,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>6</v>
+        <v>3000</v>
       </c>
       <c r="B61" s="3">
-        <v>3000</v>
+        <v>6</v>
       </c>
       <c r="C61" s="3">
         <v>10</v>
@@ -1394,10 +1394,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="B62" s="3">
-        <v>3000</v>
+        <v>7</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="B63" s="3">
-        <v>3000</v>
+        <v>7</v>
       </c>
       <c r="C63" s="3">
         <v>2</v>
@@ -1416,10 +1416,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="B64" s="3">
-        <v>3000</v>
+        <v>7</v>
       </c>
       <c r="C64" s="3">
         <v>3</v>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="B65" s="3">
-        <v>3000</v>
+        <v>7</v>
       </c>
       <c r="C65" s="3">
         <v>4</v>
@@ -1438,10 +1438,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="B66" s="3">
-        <v>3000</v>
+        <v>7</v>
       </c>
       <c r="C66" s="3">
         <v>5</v>
@@ -1449,10 +1449,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="B67" s="3">
-        <v>3000</v>
+        <v>7</v>
       </c>
       <c r="C67" s="3">
         <v>6</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="B68" s="3">
-        <v>3000</v>
+        <v>7</v>
       </c>
       <c r="C68" s="3">
         <v>7</v>
@@ -1471,10 +1471,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="B69" s="3">
-        <v>3000</v>
+        <v>7</v>
       </c>
       <c r="C69" s="3">
         <v>8</v>
@@ -1482,10 +1482,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="B70" s="3">
-        <v>3000</v>
+        <v>7</v>
       </c>
       <c r="C70" s="3">
         <v>9</v>
@@ -1493,10 +1493,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="B71" s="3">
-        <v>3000</v>
+        <v>7</v>
       </c>
       <c r="C71" s="3">
         <v>10</v>
@@ -1504,10 +1504,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B72" s="3">
         <v>8</v>
-      </c>
-      <c r="B72" s="3">
-        <v>3000</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
@@ -1515,10 +1515,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B73" s="3">
         <v>8</v>
-      </c>
-      <c r="B73" s="3">
-        <v>3000</v>
       </c>
       <c r="C73" s="3">
         <v>2</v>
@@ -1526,10 +1526,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B74" s="3">
         <v>8</v>
-      </c>
-      <c r="B74" s="3">
-        <v>3000</v>
       </c>
       <c r="C74" s="3">
         <v>3</v>
@@ -1537,10 +1537,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B75" s="3">
         <v>8</v>
-      </c>
-      <c r="B75" s="3">
-        <v>3000</v>
       </c>
       <c r="C75" s="3">
         <v>4</v>
@@ -1548,10 +1548,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B76" s="3">
         <v>8</v>
-      </c>
-      <c r="B76" s="3">
-        <v>3000</v>
       </c>
       <c r="C76" s="3">
         <v>5</v>
@@ -1559,10 +1559,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B77" s="3">
         <v>8</v>
-      </c>
-      <c r="B77" s="3">
-        <v>3000</v>
       </c>
       <c r="C77" s="3">
         <v>6</v>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B78" s="3">
         <v>8</v>
-      </c>
-      <c r="B78" s="3">
-        <v>3000</v>
       </c>
       <c r="C78" s="3">
         <v>7</v>
@@ -1581,10 +1581,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B79" s="3">
         <v>8</v>
-      </c>
-      <c r="B79" s="3">
-        <v>3000</v>
       </c>
       <c r="C79" s="3">
         <v>8</v>
@@ -1592,10 +1592,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B80" s="3">
         <v>8</v>
-      </c>
-      <c r="B80" s="3">
-        <v>3000</v>
       </c>
       <c r="C80" s="3">
         <v>9</v>
@@ -1603,10 +1603,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B81" s="3">
         <v>8</v>
-      </c>
-      <c r="B81" s="3">
-        <v>3000</v>
       </c>
       <c r="C81" s="3">
         <v>10</v>
@@ -1614,10 +1614,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B82" s="3">
         <v>9</v>
-      </c>
-      <c r="B82" s="3">
-        <v>3000</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
@@ -1625,10 +1625,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B83" s="3">
         <v>9</v>
-      </c>
-      <c r="B83" s="3">
-        <v>3000</v>
       </c>
       <c r="C83" s="3">
         <v>2</v>
@@ -1636,10 +1636,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B84" s="3">
         <v>9</v>
-      </c>
-      <c r="B84" s="3">
-        <v>3000</v>
       </c>
       <c r="C84" s="3">
         <v>3</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B85" s="3">
         <v>9</v>
-      </c>
-      <c r="B85" s="3">
-        <v>3000</v>
       </c>
       <c r="C85" s="3">
         <v>4</v>
@@ -1658,10 +1658,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B86" s="3">
         <v>9</v>
-      </c>
-      <c r="B86" s="3">
-        <v>3000</v>
       </c>
       <c r="C86" s="3">
         <v>5</v>
@@ -1669,10 +1669,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B87" s="3">
         <v>9</v>
-      </c>
-      <c r="B87" s="3">
-        <v>3000</v>
       </c>
       <c r="C87" s="3">
         <v>6</v>
@@ -1680,10 +1680,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B88" s="3">
         <v>9</v>
-      </c>
-      <c r="B88" s="3">
-        <v>3000</v>
       </c>
       <c r="C88" s="3">
         <v>7</v>
@@ -1691,10 +1691,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B89" s="3">
         <v>9</v>
-      </c>
-      <c r="B89" s="3">
-        <v>3000</v>
       </c>
       <c r="C89" s="3">
         <v>8</v>
@@ -1702,10 +1702,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B90" s="3">
         <v>9</v>
-      </c>
-      <c r="B90" s="3">
-        <v>3000</v>
       </c>
       <c r="C90" s="3">
         <v>9</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B91" s="3">
         <v>9</v>
-      </c>
-      <c r="B91" s="3">
-        <v>3000</v>
       </c>
       <c r="C91" s="3">
         <v>10</v>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B92" s="3">
         <v>10</v>
-      </c>
-      <c r="B92" s="3">
-        <v>3000</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
@@ -1735,10 +1735,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B93" s="3">
         <v>10</v>
-      </c>
-      <c r="B93" s="3">
-        <v>3000</v>
       </c>
       <c r="C93" s="3">
         <v>2</v>
@@ -1746,10 +1746,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B94" s="3">
         <v>10</v>
-      </c>
-      <c r="B94" s="3">
-        <v>3000</v>
       </c>
       <c r="C94" s="3">
         <v>3</v>
@@ -1757,10 +1757,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B95" s="3">
         <v>10</v>
-      </c>
-      <c r="B95" s="3">
-        <v>3000</v>
       </c>
       <c r="C95" s="3">
         <v>4</v>
@@ -1768,10 +1768,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B96" s="3">
         <v>10</v>
-      </c>
-      <c r="B96" s="3">
-        <v>3000</v>
       </c>
       <c r="C96" s="3">
         <v>5</v>
@@ -1779,10 +1779,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B97" s="3">
         <v>10</v>
-      </c>
-      <c r="B97" s="3">
-        <v>3000</v>
       </c>
       <c r="C97" s="3">
         <v>6</v>
@@ -1790,10 +1790,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B98" s="3">
         <v>10</v>
-      </c>
-      <c r="B98" s="3">
-        <v>3000</v>
       </c>
       <c r="C98" s="3">
         <v>7</v>
@@ -1801,10 +1801,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B99" s="3">
         <v>10</v>
-      </c>
-      <c r="B99" s="3">
-        <v>3000</v>
       </c>
       <c r="C99" s="3">
         <v>8</v>
@@ -1812,10 +1812,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B100" s="3">
         <v>10</v>
-      </c>
-      <c r="B100" s="3">
-        <v>3000</v>
       </c>
       <c r="C100" s="3">
         <v>9</v>
@@ -1823,10 +1823,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B101" s="3">
         <v>10</v>
-      </c>
-      <c r="B101" s="3">
-        <v>3000</v>
       </c>
       <c r="C101" s="3">
         <v>10</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B102" s="3">
         <v>11</v>
-      </c>
-      <c r="B102" s="3">
-        <v>3000</v>
       </c>
       <c r="C102" s="3">
         <v>1</v>
@@ -1845,10 +1845,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B103" s="3">
         <v>11</v>
-      </c>
-      <c r="B103" s="3">
-        <v>3000</v>
       </c>
       <c r="C103" s="3">
         <v>2</v>
@@ -1856,10 +1856,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B104" s="3">
         <v>11</v>
-      </c>
-      <c r="B104" s="3">
-        <v>3000</v>
       </c>
       <c r="C104" s="3">
         <v>3</v>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B105" s="3">
         <v>11</v>
-      </c>
-      <c r="B105" s="3">
-        <v>3000</v>
       </c>
       <c r="C105" s="3">
         <v>4</v>
@@ -1878,10 +1878,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B106" s="3">
         <v>11</v>
-      </c>
-      <c r="B106" s="3">
-        <v>3000</v>
       </c>
       <c r="C106" s="3">
         <v>5</v>
@@ -1889,10 +1889,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B107" s="3">
         <v>11</v>
-      </c>
-      <c r="B107" s="3">
-        <v>3000</v>
       </c>
       <c r="C107" s="3">
         <v>6</v>
@@ -1900,10 +1900,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B108" s="3">
         <v>11</v>
-      </c>
-      <c r="B108" s="3">
-        <v>3000</v>
       </c>
       <c r="C108" s="3">
         <v>7</v>
@@ -1911,10 +1911,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B109" s="3">
         <v>11</v>
-      </c>
-      <c r="B109" s="3">
-        <v>3000</v>
       </c>
       <c r="C109" s="3">
         <v>8</v>
@@ -1922,10 +1922,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B110" s="3">
         <v>11</v>
-      </c>
-      <c r="B110" s="3">
-        <v>3000</v>
       </c>
       <c r="C110" s="3">
         <v>9</v>
@@ -1933,10 +1933,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B111" s="3">
         <v>11</v>
-      </c>
-      <c r="B111" s="3">
-        <v>3000</v>
       </c>
       <c r="C111" s="3">
         <v>10</v>
@@ -1944,10 +1944,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B112" s="3">
         <v>12</v>
-      </c>
-      <c r="B112" s="3">
-        <v>3000</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
@@ -1955,10 +1955,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B113" s="3">
         <v>12</v>
-      </c>
-      <c r="B113" s="3">
-        <v>3000</v>
       </c>
       <c r="C113" s="3">
         <v>2</v>
@@ -1966,10 +1966,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B114" s="3">
         <v>12</v>
-      </c>
-      <c r="B114" s="3">
-        <v>3000</v>
       </c>
       <c r="C114" s="3">
         <v>3</v>
@@ -1977,10 +1977,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B115" s="3">
         <v>12</v>
-      </c>
-      <c r="B115" s="3">
-        <v>3000</v>
       </c>
       <c r="C115" s="3">
         <v>4</v>
@@ -1988,10 +1988,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B116" s="3">
         <v>12</v>
-      </c>
-      <c r="B116" s="3">
-        <v>3000</v>
       </c>
       <c r="C116" s="3">
         <v>5</v>
@@ -1999,10 +1999,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B117" s="3">
         <v>12</v>
-      </c>
-      <c r="B117" s="3">
-        <v>3000</v>
       </c>
       <c r="C117" s="3">
         <v>6</v>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B118" s="3">
         <v>12</v>
-      </c>
-      <c r="B118" s="3">
-        <v>3000</v>
       </c>
       <c r="C118" s="3">
         <v>7</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B119" s="3">
         <v>12</v>
-      </c>
-      <c r="B119" s="3">
-        <v>3000</v>
       </c>
       <c r="C119" s="3">
         <v>8</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B120" s="3">
         <v>12</v>
-      </c>
-      <c r="B120" s="3">
-        <v>3000</v>
       </c>
       <c r="C120" s="3">
         <v>9</v>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B121" s="3">
         <v>12</v>
-      </c>
-      <c r="B121" s="3">
-        <v>3000</v>
       </c>
       <c r="C121" s="3">
         <v>10</v>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B122" s="3">
         <v>13</v>
-      </c>
-      <c r="B122" s="3">
-        <v>3000</v>
       </c>
       <c r="C122" s="3">
         <v>1</v>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B123" s="3">
         <v>13</v>
-      </c>
-      <c r="B123" s="3">
-        <v>3000</v>
       </c>
       <c r="C123" s="3">
         <v>2</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B124" s="3">
         <v>13</v>
-      </c>
-      <c r="B124" s="3">
-        <v>3000</v>
       </c>
       <c r="C124" s="3">
         <v>3</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B125" s="3">
         <v>13</v>
-      </c>
-      <c r="B125" s="3">
-        <v>3000</v>
       </c>
       <c r="C125" s="3">
         <v>4</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B126" s="3">
         <v>13</v>
-      </c>
-      <c r="B126" s="3">
-        <v>3000</v>
       </c>
       <c r="C126" s="3">
         <v>5</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B127" s="3">
         <v>13</v>
-      </c>
-      <c r="B127" s="3">
-        <v>3000</v>
       </c>
       <c r="C127" s="3">
         <v>6</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B128" s="3">
         <v>13</v>
-      </c>
-      <c r="B128" s="3">
-        <v>3000</v>
       </c>
       <c r="C128" s="3">
         <v>7</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B129" s="3">
         <v>13</v>
-      </c>
-      <c r="B129" s="3">
-        <v>3000</v>
       </c>
       <c r="C129" s="3">
         <v>8</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B130" s="3">
         <v>13</v>
-      </c>
-      <c r="B130" s="3">
-        <v>3000</v>
       </c>
       <c r="C130" s="3">
         <v>9</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B131" s="3">
         <v>13</v>
-      </c>
-      <c r="B131" s="3">
-        <v>3000</v>
       </c>
       <c r="C131" s="3">
         <v>10</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B132" s="3">
         <v>14</v>
-      </c>
-      <c r="B132" s="3">
-        <v>3000</v>
       </c>
       <c r="C132" s="3">
         <v>1</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B133" s="3">
         <v>14</v>
-      </c>
-      <c r="B133" s="3">
-        <v>3000</v>
       </c>
       <c r="C133" s="3">
         <v>2</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B134" s="3">
         <v>14</v>
-      </c>
-      <c r="B134" s="3">
-        <v>3000</v>
       </c>
       <c r="C134" s="3">
         <v>3</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B135" s="3">
         <v>14</v>
-      </c>
-      <c r="B135" s="3">
-        <v>3000</v>
       </c>
       <c r="C135" s="3">
         <v>4</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B136" s="3">
         <v>14</v>
-      </c>
-      <c r="B136" s="3">
-        <v>3000</v>
       </c>
       <c r="C136" s="3">
         <v>5</v>
@@ -2219,10 +2219,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B137" s="3">
         <v>14</v>
-      </c>
-      <c r="B137" s="3">
-        <v>3000</v>
       </c>
       <c r="C137" s="3">
         <v>6</v>
@@ -2230,10 +2230,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B138" s="3">
         <v>14</v>
-      </c>
-      <c r="B138" s="3">
-        <v>3000</v>
       </c>
       <c r="C138" s="3">
         <v>7</v>
@@ -2241,10 +2241,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B139" s="3">
         <v>14</v>
-      </c>
-      <c r="B139" s="3">
-        <v>3000</v>
       </c>
       <c r="C139" s="3">
         <v>8</v>
@@ -2252,10 +2252,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B140" s="3">
         <v>14</v>
-      </c>
-      <c r="B140" s="3">
-        <v>3000</v>
       </c>
       <c r="C140" s="3">
         <v>9</v>
@@ -2263,10 +2263,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B141" s="3">
         <v>14</v>
-      </c>
-      <c r="B141" s="3">
-        <v>3000</v>
       </c>
       <c r="C141" s="3">
         <v>10</v>
@@ -2274,10 +2274,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B142" s="3">
         <v>15</v>
-      </c>
-      <c r="B142" s="3">
-        <v>3000</v>
       </c>
       <c r="C142" s="3">
         <v>1</v>
@@ -2285,10 +2285,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B143" s="3">
         <v>15</v>
-      </c>
-      <c r="B143" s="3">
-        <v>3000</v>
       </c>
       <c r="C143" s="3">
         <v>2</v>
@@ -2296,10 +2296,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B144" s="3">
         <v>15</v>
-      </c>
-      <c r="B144" s="3">
-        <v>3000</v>
       </c>
       <c r="C144" s="3">
         <v>3</v>
@@ -2307,10 +2307,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B145" s="3">
         <v>15</v>
-      </c>
-      <c r="B145" s="3">
-        <v>3000</v>
       </c>
       <c r="C145" s="3">
         <v>4</v>
@@ -2318,10 +2318,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B146" s="3">
         <v>15</v>
-      </c>
-      <c r="B146" s="3">
-        <v>3000</v>
       </c>
       <c r="C146" s="3">
         <v>5</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B147" s="3">
         <v>15</v>
-      </c>
-      <c r="B147" s="3">
-        <v>3000</v>
       </c>
       <c r="C147" s="3">
         <v>6</v>
@@ -2340,10 +2340,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B148" s="3">
         <v>15</v>
-      </c>
-      <c r="B148" s="3">
-        <v>3000</v>
       </c>
       <c r="C148" s="3">
         <v>7</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B149" s="3">
         <v>15</v>
-      </c>
-      <c r="B149" s="3">
-        <v>3000</v>
       </c>
       <c r="C149" s="3">
         <v>8</v>
@@ -2362,10 +2362,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B150" s="3">
         <v>15</v>
-      </c>
-      <c r="B150" s="3">
-        <v>3000</v>
       </c>
       <c r="C150" s="3">
         <v>9</v>
@@ -2373,10 +2373,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B151" s="3">
         <v>15</v>
-      </c>
-      <c r="B151" s="3">
-        <v>3000</v>
       </c>
       <c r="C151" s="3">
         <v>10</v>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B152" s="3">
         <v>16</v>
-      </c>
-      <c r="B152" s="3">
-        <v>3000</v>
       </c>
       <c r="C152" s="3">
         <v>1</v>
@@ -2395,10 +2395,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B153" s="3">
         <v>16</v>
-      </c>
-      <c r="B153" s="3">
-        <v>3000</v>
       </c>
       <c r="C153" s="3">
         <v>2</v>
@@ -2406,10 +2406,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B154" s="3">
         <v>16</v>
-      </c>
-      <c r="B154" s="3">
-        <v>3000</v>
       </c>
       <c r="C154" s="3">
         <v>3</v>
@@ -2417,10 +2417,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B155" s="3">
         <v>16</v>
-      </c>
-      <c r="B155" s="3">
-        <v>3000</v>
       </c>
       <c r="C155" s="3">
         <v>4</v>
@@ -2428,10 +2428,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B156" s="3">
         <v>16</v>
-      </c>
-      <c r="B156" s="3">
-        <v>3000</v>
       </c>
       <c r="C156" s="3">
         <v>5</v>
@@ -2439,10 +2439,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B157" s="3">
         <v>16</v>
-      </c>
-      <c r="B157" s="3">
-        <v>3000</v>
       </c>
       <c r="C157" s="3">
         <v>6</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B158" s="3">
         <v>16</v>
-      </c>
-      <c r="B158" s="3">
-        <v>3000</v>
       </c>
       <c r="C158" s="3">
         <v>7</v>
@@ -2461,10 +2461,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B159" s="3">
         <v>16</v>
-      </c>
-      <c r="B159" s="3">
-        <v>3000</v>
       </c>
       <c r="C159" s="3">
         <v>8</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B160" s="3">
         <v>16</v>
-      </c>
-      <c r="B160" s="3">
-        <v>3000</v>
       </c>
       <c r="C160" s="3">
         <v>9</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B161" s="3">
         <v>16</v>
-      </c>
-      <c r="B161" s="3">
-        <v>3000</v>
       </c>
       <c r="C161" s="3">
         <v>10</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B162" s="3">
         <v>17</v>
-      </c>
-      <c r="B162" s="3">
-        <v>3000</v>
       </c>
       <c r="C162" s="3">
         <v>1</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B163" s="3">
         <v>17</v>
-      </c>
-      <c r="B163" s="3">
-        <v>3000</v>
       </c>
       <c r="C163" s="3">
         <v>2</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B164" s="3">
         <v>17</v>
-      </c>
-      <c r="B164" s="3">
-        <v>3000</v>
       </c>
       <c r="C164" s="3">
         <v>3</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B165" s="3">
         <v>17</v>
-      </c>
-      <c r="B165" s="3">
-        <v>3000</v>
       </c>
       <c r="C165" s="3">
         <v>4</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B166" s="3">
         <v>17</v>
-      </c>
-      <c r="B166" s="3">
-        <v>3000</v>
       </c>
       <c r="C166" s="3">
         <v>5</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B167" s="3">
         <v>17</v>
-      </c>
-      <c r="B167" s="3">
-        <v>3000</v>
       </c>
       <c r="C167" s="3">
         <v>6</v>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B168" s="3">
         <v>17</v>
-      </c>
-      <c r="B168" s="3">
-        <v>3000</v>
       </c>
       <c r="C168" s="3">
         <v>7</v>
@@ -2571,10 +2571,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B169" s="3">
         <v>17</v>
-      </c>
-      <c r="B169" s="3">
-        <v>3000</v>
       </c>
       <c r="C169" s="3">
         <v>8</v>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B170" s="3">
         <v>17</v>
-      </c>
-      <c r="B170" s="3">
-        <v>3000</v>
       </c>
       <c r="C170" s="3">
         <v>9</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B171" s="3">
         <v>17</v>
-      </c>
-      <c r="B171" s="3">
-        <v>3000</v>
       </c>
       <c r="C171" s="3">
         <v>10</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B172" s="3">
         <v>18</v>
-      </c>
-      <c r="B172" s="3">
-        <v>3000</v>
       </c>
       <c r="C172" s="3">
         <v>1</v>
@@ -2615,10 +2615,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B173" s="3">
         <v>18</v>
-      </c>
-      <c r="B173" s="3">
-        <v>3000</v>
       </c>
       <c r="C173" s="3">
         <v>2</v>
@@ -2626,10 +2626,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B174" s="3">
         <v>18</v>
-      </c>
-      <c r="B174" s="3">
-        <v>3000</v>
       </c>
       <c r="C174" s="3">
         <v>3</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B175" s="3">
         <v>18</v>
-      </c>
-      <c r="B175" s="3">
-        <v>3000</v>
       </c>
       <c r="C175" s="3">
         <v>4</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B176" s="3">
         <v>18</v>
-      </c>
-      <c r="B176" s="3">
-        <v>3000</v>
       </c>
       <c r="C176" s="3">
         <v>5</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B177" s="3">
         <v>18</v>
-      </c>
-      <c r="B177" s="3">
-        <v>3000</v>
       </c>
       <c r="C177" s="3">
         <v>6</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B178" s="3">
         <v>18</v>
-      </c>
-      <c r="B178" s="3">
-        <v>3000</v>
       </c>
       <c r="C178" s="3">
         <v>7</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B179" s="3">
         <v>18</v>
-      </c>
-      <c r="B179" s="3">
-        <v>3000</v>
       </c>
       <c r="C179" s="3">
         <v>8</v>
@@ -2692,10 +2692,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B180" s="3">
         <v>18</v>
-      </c>
-      <c r="B180" s="3">
-        <v>3000</v>
       </c>
       <c r="C180" s="3">
         <v>9</v>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B181" s="3">
         <v>18</v>
-      </c>
-      <c r="B181" s="3">
-        <v>3000</v>
       </c>
       <c r="C181" s="3">
         <v>10</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B182" s="3">
         <v>19</v>
-      </c>
-      <c r="B182" s="3">
-        <v>3000</v>
       </c>
       <c r="C182" s="3">
         <v>1</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B183" s="3">
         <v>19</v>
-      </c>
-      <c r="B183" s="3">
-        <v>3000</v>
       </c>
       <c r="C183" s="3">
         <v>2</v>
@@ -2736,10 +2736,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B184" s="3">
         <v>19</v>
-      </c>
-      <c r="B184" s="3">
-        <v>3000</v>
       </c>
       <c r="C184" s="3">
         <v>3</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B185" s="3">
         <v>19</v>
-      </c>
-      <c r="B185" s="3">
-        <v>3000</v>
       </c>
       <c r="C185" s="3">
         <v>4</v>
@@ -2758,10 +2758,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B186" s="3">
         <v>19</v>
-      </c>
-      <c r="B186" s="3">
-        <v>3000</v>
       </c>
       <c r="C186" s="3">
         <v>5</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B187" s="3">
         <v>19</v>
-      </c>
-      <c r="B187" s="3">
-        <v>3000</v>
       </c>
       <c r="C187" s="3">
         <v>6</v>
@@ -2780,10 +2780,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B188" s="3">
         <v>19</v>
-      </c>
-      <c r="B188" s="3">
-        <v>3000</v>
       </c>
       <c r="C188" s="3">
         <v>7</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B189" s="3">
         <v>19</v>
-      </c>
-      <c r="B189" s="3">
-        <v>3000</v>
       </c>
       <c r="C189" s="3">
         <v>8</v>
@@ -2802,10 +2802,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B190" s="3">
         <v>19</v>
-      </c>
-      <c r="B190" s="3">
-        <v>3000</v>
       </c>
       <c r="C190" s="3">
         <v>9</v>
@@ -2813,10 +2813,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B191" s="3">
         <v>19</v>
-      </c>
-      <c r="B191" s="3">
-        <v>3000</v>
       </c>
       <c r="C191" s="3">
         <v>10</v>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B192" s="3">
         <v>20</v>
-      </c>
-      <c r="B192" s="3">
-        <v>3000</v>
       </c>
       <c r="C192" s="3">
         <v>1</v>
@@ -2835,10 +2835,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B193" s="3">
         <v>20</v>
-      </c>
-      <c r="B193" s="3">
-        <v>3000</v>
       </c>
       <c r="C193" s="3">
         <v>2</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B194" s="3">
         <v>20</v>
-      </c>
-      <c r="B194" s="3">
-        <v>3000</v>
       </c>
       <c r="C194" s="3">
         <v>3</v>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B195" s="3">
         <v>20</v>
-      </c>
-      <c r="B195" s="3">
-        <v>3000</v>
       </c>
       <c r="C195" s="3">
         <v>4</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B196" s="3">
         <v>20</v>
-      </c>
-      <c r="B196" s="3">
-        <v>3000</v>
       </c>
       <c r="C196" s="3">
         <v>5</v>
@@ -2879,10 +2879,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B197" s="3">
         <v>20</v>
-      </c>
-      <c r="B197" s="3">
-        <v>3000</v>
       </c>
       <c r="C197" s="3">
         <v>6</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B198" s="3">
         <v>20</v>
-      </c>
-      <c r="B198" s="3">
-        <v>3000</v>
       </c>
       <c r="C198" s="3">
         <v>7</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B199" s="3">
         <v>20</v>
-      </c>
-      <c r="B199" s="3">
-        <v>3000</v>
       </c>
       <c r="C199" s="3">
         <v>8</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B200" s="3">
         <v>20</v>
-      </c>
-      <c r="B200" s="3">
-        <v>3000</v>
       </c>
       <c r="C200" s="3">
         <v>9</v>
@@ -2923,10 +2923,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B201" s="3">
         <v>20</v>
-      </c>
-      <c r="B201" s="3">
-        <v>3000</v>
       </c>
       <c r="C201" s="3">
         <v>10</v>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="8">
   <si>
     <t>Participant</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Total Time</t>
-  </si>
-  <si>
-    <t>Spool</t>
   </si>
   <si>
     <t>Period</t>
@@ -51,6 +48,9 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>DWG</t>
   </si>
 </sst>
 </file>
@@ -429,14 +429,14 @@
   <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.83203125" style="8" bestFit="1" customWidth="1"/>
@@ -444,13 +444,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -479,7 +479,7 @@
         <v>429.81</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -499,7 +499,7 @@
         <v>940.52</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -519,7 +519,7 @@
         <v>315.42</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -539,7 +539,7 @@
         <v>153.49</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -559,7 +559,7 @@
         <v>49.67</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -579,7 +579,7 @@
         <v>108.36</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -599,7 +599,7 @@
         <v>96.17</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -619,7 +619,7 @@
         <v>48.59</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -639,7 +639,7 @@
         <v>45.819000000000003</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -659,7 +659,7 @@
         <v>41.021000000000001</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -679,7 +679,7 @@
         <v>719.09</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -699,7 +699,7 @@
         <v>309.82</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -719,7 +719,7 @@
         <v>341.01</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -739,7 +739,7 @@
         <v>102.45</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -759,7 +759,7 @@
         <v>124.99</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -779,7 +779,7 @@
         <v>47.146000000000001</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -799,7 +799,7 @@
         <v>162.72999999999999</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -819,7 +819,7 @@
         <v>128.81</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -839,7 +839,7 @@
         <v>58.502000000000002</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -859,7 +859,7 @@
         <v>30.501999999999999</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -879,7 +879,7 @@
         <v>60.173000000000002</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -899,7 +899,7 @@
         <v>108.35</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -919,7 +919,7 @@
         <v>96.685000000000002</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -939,7 +939,7 @@
         <v>65.617000000000004</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -959,7 +959,7 @@
         <v>46.814</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -979,7 +979,7 @@
         <v>24.908000000000001</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -999,7 +999,7 @@
         <v>92.153000000000006</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1019,7 +1019,7 @@
         <v>86.91</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1039,7 +1039,7 @@
         <v>91.222999999999999</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1059,7 +1059,7 @@
         <v>18.521000000000001</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1071,6 +1071,15 @@
       </c>
       <c r="C32" s="3">
         <v>1</v>
+      </c>
+      <c r="D32" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="E32" s="5">
+        <v>429.81</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
